--- a/HONDURAS/Género/INE/Trabajo Infantil EPHPM Honduras.xlsx
+++ b/HONDURAS/Género/INE/Trabajo Infantil EPHPM Honduras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavia\OneDrive\Documentos\Data Intelligence\Género\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Género\INE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096562AF-0E6A-448C-95A9-2DEA75AE89CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7998604C-79A7-4AD9-A105-58A0FB2A01E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{D2F99FA0-58B9-4905-BD4C-470CBC08D41F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D2F99FA0-58B9-4905-BD4C-470CBC08D41F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -479,10 +479,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -729,9 +729,9 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
@@ -775,13 +775,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -797,10 +797,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,7 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,13 +884,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -915,10 +915,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,19 +948,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,10 +984,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3498,7 +3498,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D143B740-8047-40D2-AF2A-A31E040E44F7}" name="Tabla1" displayName="Tabla1" ref="B5:H205" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D143B740-8047-40D2-AF2A-A31E040E44F7}" name="poblacion_condicion_trabajo" displayName="poblacion_condicion_trabajo" ref="B5:H205" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75">
   <autoFilter ref="B5:H205" xr:uid="{E2E889A0-2941-4D91-800D-64791E286FDE}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{C90F8547-0CD3-4404-83D0-439F13EBA278}" name="Año" dataDxfId="74"/>
@@ -3514,7 +3514,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B91D34E8-30D9-4746-B5B1-4B6834D2E279}" name="Tabla4318" displayName="Tabla4318" ref="B6:H206" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B91D34E8-30D9-4746-B5B1-4B6834D2E279}" name="estudio_promedio_condicion_trabajo" displayName="estudio_promedio_condicion_trabajo" ref="B6:H206" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="B6:H206" xr:uid="{9D89136E-6E9D-4B49-AF70-21D9A3E48BEF}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{86F32CFC-E442-4FDC-81B2-CA9687D15881}" name="Año" dataDxfId="62"/>
@@ -3530,7 +3530,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{291B4DE8-F012-49F0-874B-DFBF4279376E}" name="Tabla36" displayName="Tabla36" ref="B7:F207" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{291B4DE8-F012-49F0-874B-DFBF4279376E}" name="ingreso_condicion_trabajo" displayName="ingreso_condicion_trabajo" ref="B7:F207" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="B7:F207" xr:uid="{ED53E873-0D60-43DF-99A5-0EE7643C12FC}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{D9910120-D230-482A-8230-97378312F608}" name="Año" dataDxfId="52"/>
@@ -3544,7 +3544,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF17804D-2DE9-45BA-A60A-2AB0BD1C08BE}" name="Tabla12" displayName="Tabla12" ref="C6:J430" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF17804D-2DE9-45BA-A60A-2AB0BD1C08BE}" name="condicion_trabajo" displayName="condicion_trabajo" ref="C6:J430" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="C6:J430" xr:uid="{5C841311-FD66-4DEA-B90D-7C6295B3B595}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{17C40F4E-DE61-4A95-9135-E9A2104D0E33}" name="Año" dataDxfId="43"/>
@@ -3561,7 +3561,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA0AFB96-F90F-4210-AFEF-A0A2EA4C754F}" name="Tabla11" displayName="Tabla11" ref="B6:I238" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BA0AFB96-F90F-4210-AFEF-A0A2EA4C754F}" name="hogar_condicion_trabajo" displayName="hogar_condicion_trabajo" ref="B6:I238" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="B6:I238" xr:uid="{8D6D2146-487C-4239-B96C-4ACB9706E9DE}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{C6A81BE2-9CB1-4089-A5FF-6B4C45CAA148}" name="Año" dataDxfId="31"/>
@@ -3578,7 +3578,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2836258C-7AD4-4AFA-8754-785FB6ECDB31}" name="Tabla19" displayName="Tabla19" ref="B6:I118" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2836258C-7AD4-4AFA-8754-785FB6ECDB31}" name="general_condicion_trabajo" displayName="general_condicion_trabajo" ref="B6:I118" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <autoFilter ref="B6:I118" xr:uid="{D16F701F-B37E-4A5F-B8C4-A41F928236CE}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{E0E54FDC-3CD9-40BB-8CED-5704AA0B9289}" name="Año" dataDxfId="19"/>
@@ -3595,7 +3595,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D5E24AB-E6DA-4674-89E4-CEAD0FDAE70B}" name="Tabla23" displayName="Tabla23" ref="C8:J240" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D5E24AB-E6DA-4674-89E4-CEAD0FDAE70B}" name="hogar_condicion_trabajo_2" displayName="hogar_condicion_trabajo_2" ref="C8:J240" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="C8:J240" xr:uid="{C2A221A5-7059-430B-80D4-890742AFE49B}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{1BC26D35-74B3-4F23-95A7-1E922642E746}" name="Año" dataDxfId="7"/>
@@ -3910,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9641C9-0908-4B15-B099-DFB2DB1A4954}">
   <dimension ref="B3:H205"/>
   <sheetViews>
-    <sheetView topLeftCell="B208" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8574,7 +8574,7 @@
   <dimension ref="B3:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13238,7 +13238,7 @@
   <dimension ref="B3:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16709,7 +16709,7 @@
   <dimension ref="B3:J430"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E433" sqref="E433"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27830,8 +27830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D51B06F-5A7B-412B-961D-1AE1B4C7AB2B}">
   <dimension ref="A3:I238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33901,8 +33901,9 @@
     <mergeCell ref="A3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -33911,8 +33912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A23D08D-2ACE-4942-8287-537C2CC1A23A}">
   <dimension ref="A3:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36905,8 +36906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4DA642-27FF-4241-A05C-CB952F70280E}">
   <dimension ref="B5:J240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
